--- a/clockshift/4shot_analysis_results_97.xlsx
+++ b/clockshift/4shot_analysis_results_97.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,165 +514,170 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>x_star</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>kF</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>C_theory</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ns_theory</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>EF_theory</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ToTF_theory</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>C_theory_std</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>CS_theory</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>CS_theory_std</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>C_loss</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>C_HFT</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>C_HFT_std</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>C_loss_HFT</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>C_loss_HFT_std</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>transfer_c5</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>e_transfer_c5</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>SW_c5</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>e_SW_c5</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>FM_c5</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>e_FM_c5</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>transfer_c9</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>e_transfer_c9</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>SW_c9</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>e_SW_c9</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>FM_c9</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>e_FM_c9</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>dimer_transfer</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>e_dimer_transfer</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>SW_dimer</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>e_SW_dimer</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>FM_dimer</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>e_FM_dimer</t>
         </is>
@@ -720,104 +725,109 @@
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>218.6813186813187</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>11996692.91208371</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1.724316019720972</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1.87516229994396e-14</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0182</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.3270000000000001</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.01</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>3.889210838018102</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.02255509311249948</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.380918853606461</v>
-      </c>
       <c r="X2" t="n">
-        <v>0.9739286453444765</v>
+        <v>1.6309705481476</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.380014790216749</v>
+        <v>1.150284053552948</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00671327710114202</v>
+        <v>1.630299197884467</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9807533912191295</v>
+        <v>0.007524334009589803</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.08063430841876575</v>
+        <v>1.160595570531587</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07622353674170927</v>
+        <v>0.09214326300774199</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.005113559763136329</v>
+        <v>0.08177090221821035</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02170397873264608</v>
+        <v>0.005485712330501065</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.001456040969645734</v>
+        <v>0.02328354204695647</v>
       </c>
       <c r="AG2" t="n">
-        <v>-4.739934300475191</v>
+        <v>0.001562008125627412</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3179849473654344</v>
+        <v>-5.084895306265826</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08199672400995413</v>
+        <v>0.3411271262050156</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01602767971581574</v>
+        <v>0.08796424815542067</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02334784280725816</v>
+        <v>0.01719413565481549</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.004563740211432322</v>
+        <v>0.02504704259089776</v>
       </c>
       <c r="AM2" t="n">
-        <v>-5.098937956374128</v>
+        <v>0.00489587823565452</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.9966757262846196</v>
+        <v>-5.470026383848432</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06637444624862379</v>
+        <v>1.069211385893189</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.007586347443222913</v>
+        <v>0.05769250073729396</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01889953722106685</v>
+        <v>0.008417250805201512</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.002160145417079236</v>
+        <v>0.0164274299325476</v>
       </c>
       <c r="AS2" t="n">
-        <v>-4.127472010581016</v>
+        <v>0.002396737809247777</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.4717543950145522</v>
+        <v>-3.587588228181154</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.5234238335394039</v>
       </c>
     </row>
     <row r="3">
@@ -862,104 +872,109 @@
       <c r="M3" t="n">
         <v>1.13</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>279.2982456140351</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>10615324.63615242</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>2.025751005851983</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>9.000555039913743e-15</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.01424999999999999</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.2365000000000001</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.01</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>5.163675585459999</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.0254901790523277</v>
       </c>
-      <c r="W3" t="n">
-        <v>2.056726809301212</v>
-      </c>
       <c r="X3" t="n">
-        <v>0.5183971024566628</v>
+        <v>2.376181731620977</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.05799637823732</v>
+        <v>0.5989155774175398</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02925997441628476</v>
+        <v>2.377249342832806</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5376264623029885</v>
+        <v>0.03183471348137917</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1864433853609233</v>
+        <v>0.5890246496965054</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09451798817956886</v>
+        <v>0.2469791513232772</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.007893978802189632</v>
+        <v>0.1013967797831703</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02691316216739294</v>
+        <v>0.008468483572650327</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002247740728946405</v>
+        <v>0.02887183730964956</v>
       </c>
       <c r="AG3" t="n">
-        <v>-7.506789169595572</v>
+        <v>0.00241132588719136</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.6269540403749679</v>
+        <v>-8.053115210853635</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07978941805041422</v>
+        <v>0.6725822458820712</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02420227704667535</v>
+        <v>0.08559629978279622</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02271933193449931</v>
+        <v>0.02596366049699189</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.006891384587448765</v>
+        <v>0.02437279021011939</v>
       </c>
       <c r="AM3" t="n">
-        <v>-6.337019553688039</v>
+        <v>0.007392922964961315</v>
       </c>
       <c r="AN3" t="n">
-        <v>-1.92218851366545</v>
+        <v>-6.798212578818363</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.08880023445324539</v>
+        <v>2.062080765532055</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00530626636770693</v>
+        <v>0.05416556989065726</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0252850823041461</v>
+        <v>0.005168224483363458</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001510912472937605</v>
+        <v>0.01542316753068204</v>
       </c>
       <c r="AS3" t="n">
-        <v>-7.052674851529099</v>
+        <v>0.001471606265825259</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.4214332495568496</v>
+        <v>-4.301927297136982</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.4104697140193451</v>
       </c>
     </row>
     <row r="4">
@@ -1004,104 +1019,109 @@
       <c r="M4" t="n">
         <v>1.13</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>222.9691876750701</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>11880780.11729676</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>1.517691615949956</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>1.769046955009103e-14</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.01785000000000128</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.3924999999999718</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.01</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>3.456565119042575</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.02277514801239141</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.293699900384214</v>
-      </c>
       <c r="X4" t="n">
-        <v>1.092620269340828</v>
+        <v>1.516441756880742</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.294110117929466</v>
+        <v>1.280741383956693</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01065273632010123</v>
+        <v>1.517012420991218</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.104638467437064</v>
+        <v>0.01544608992097891</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09348120947633883</v>
+        <v>1.28060902769916</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.07878056182441169</v>
+        <v>0.1162324217777912</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.006865724784021759</v>
+        <v>0.08099719510682503</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02086623443560417</v>
+        <v>0.007058904341411472</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.001818492018793186</v>
+        <v>0.02145334359879711</v>
       </c>
       <c r="AG4" t="n">
-        <v>-4.646331765333111</v>
+        <v>0.001869658573579179</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.4049277438149742</v>
+        <v>-4.777064694797703</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.07459016092416346</v>
+        <v>0.4163211166613543</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01923653457309474</v>
+        <v>0.07668888971482098</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01975634278798391</v>
+        <v>0.01977778918953241</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.005095089839869863</v>
+        <v>0.02031222314664672</v>
       </c>
       <c r="AM4" t="n">
-        <v>-4.399189673915952</v>
+        <v>0.005238449387636403</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1.134535214931696</v>
+        <v>-4.522968814620551</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08507157155337235</v>
+        <v>1.166457410702434</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.007420825145360486</v>
+        <v>0.1303752260332978</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02253250439866609</v>
+        <v>0.006795069936276853</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001965518823461051</v>
+        <v>0.03453186887736429</v>
       </c>
       <c r="AS4" t="n">
-        <v>-5.01736387862063</v>
+        <v>0.001799778003775839</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4376665360005969</v>
+        <v>-7.689289592541181</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.4007606516306912</v>
       </c>
     </row>
     <row r="5">
@@ -1146,104 +1166,109 @@
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>237.6119402985074</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>11508885.08613237</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>1.187035838141218</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>1.461736639867735e-14</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.01675000000000139</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.5054999999999581</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.01</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>2.790851597608819</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.02351109804720823</v>
       </c>
-      <c r="W5" t="n">
-        <v>0.7037858532758825</v>
-      </c>
       <c r="X5" t="n">
-        <v>1.052618963846377</v>
+        <v>0.8591651417411406</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7044712960395053</v>
+        <v>1.285012361449062</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.008207422666742953</v>
+        <v>0.8578287023116785</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.051152564672453</v>
+        <v>0.01041334731977601</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04475056165910704</v>
+        <v>1.283384480646067</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06218978668469367</v>
+        <v>0.05181196843190589</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005048681446146162</v>
+        <v>0.06415765250331641</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01449565815918874</v>
+        <v>0.005208436418411265</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.00117678423257859</v>
+        <v>0.0149543429646944</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.439754775243437</v>
+        <v>0.001214021110056987</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.2792456292077687</v>
+        <v>-3.548598625777369</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.07406982244479847</v>
+        <v>0.2880817735011053</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.01453411781891128</v>
+        <v>0.07641360716494208</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.01726474527908076</v>
+        <v>0.01499401959996548</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.003387720311961858</v>
+        <v>0.01781105205890918</v>
       </c>
       <c r="AM5" t="n">
-        <v>-4.096846749896262</v>
+        <v>0.00349491764066092</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.8038908611316307</v>
+        <v>-4.226482902599787</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.04673577157692357</v>
+        <v>0.8293283072438794</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.009930975892544507</v>
+        <v>0.07650938014021977</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01089352134330046</v>
+        <v>0.00668454694566892</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.002314785745372244</v>
+        <v>0.01783337553651737</v>
       </c>
       <c r="AS5" t="n">
-        <v>-2.584983837803965</v>
+        <v>0.001558083933697017</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.5492882926645416</v>
+        <v>-4.23178016388034</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.3697263409710771</v>
       </c>
     </row>
     <row r="6">
@@ -1288,104 +1313,109 @@
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>255.1282051282051</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>11106779.428806</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>1.466882967928639</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>1.180860223871418e-14</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.01560000000000001</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.4089999999999998</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.01</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>3.573662089956603</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.02436228498175904</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.170326337257173</v>
-      </c>
       <c r="X6" t="n">
-        <v>1.013499539070508</v>
+        <v>1.398728648829305</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.169350483635777</v>
+        <v>1.211295341943333</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007853666067360777</v>
+        <v>1.399007581454065</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.019596614806259</v>
+        <v>0.01017171606869747</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06217745257572652</v>
+        <v>1.202362981212888</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.07414592254918174</v>
+        <v>0.07906233187567943</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.007514041333977125</v>
+        <v>0.07629118895931507</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01905393779148076</v>
+        <v>0.007731445338458183</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001930950094325791</v>
+        <v>0.01960522599883593</v>
       </c>
       <c r="AG6" t="n">
-        <v>-4.854723496140942</v>
+        <v>0.001986818336766947</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.4919838038408161</v>
+        <v>-4.995185370357262</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.07257981919756895</v>
+        <v>0.5062183873812561</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01948739859392852</v>
+        <v>0.07467977348804009</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.01865148227119418</v>
+        <v>0.02005122813690446</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.005007850300604312</v>
+        <v>0.01919112621977475</v>
       </c>
       <c r="AM6" t="n">
-        <v>-4.752182473289462</v>
+        <v>0.005152742597678859</v>
       </c>
       <c r="AN6" t="n">
-        <v>-1.275942473705896</v>
+        <v>-4.889677524726848</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.06793689303438515</v>
+        <v>1.312859359166294</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.006920274484246353</v>
+        <v>0.03453616696373044</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01745834820202049</v>
+        <v>0.005113792480823197</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.001778364541021639</v>
+        <v>0.00887506627821134</v>
       </c>
       <c r="AS6" t="n">
-        <v>-4.448185679395573</v>
+        <v>0.001314136778641007</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.4531067654614565</v>
+        <v>-2.26126448307735</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.3348268880810523</v>
       </c>
     </row>
     <row r="7">
@@ -1430,104 +1460,109 @@
       <c r="M7" t="n">
         <v>1.13</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>214.5552560646901</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>12111496.41696371</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.9492299963487703</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>1.98543850797079e-14</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.01855</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.6005</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.01</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>2.120702825935799</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.02234129593558062</v>
       </c>
-      <c r="W7" t="n">
-        <v>0.5365217815207505</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.8472032645593779</v>
+        <v>0.6549731147931858</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.536818903273685</v>
+        <v>1.034245728996466</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004792798369232957</v>
+        <v>0.6550222465998132</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8417946667031124</v>
+        <v>0.005021501830424666</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0317703104040782</v>
+        <v>1.034494638604088</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.05409950957488548</v>
+        <v>0.03983520922127902</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.005158505015251643</v>
+        <v>0.05581137548361473</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01260991618050219</v>
+        <v>0.005321735124822129</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001202382727129575</v>
+        <v>0.01300893062242527</v>
       </c>
       <c r="AG7" t="n">
-        <v>-2.7019209618675</v>
+        <v>0.00124042961546539</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.2576339959850097</v>
+        <v>-2.787417603501552</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.05411595043411074</v>
+        <v>0.2657862853148407</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01136723565812114</v>
+        <v>0.05582833657946763</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01261374833828689</v>
+        <v>0.01172692807220289</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002649559856998512</v>
+        <v>0.01301288404083359</v>
       </c>
       <c r="AM7" t="n">
-        <v>-2.702742076560052</v>
+        <v>0.002733399640907365</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.5677199764750406</v>
+        <v>-2.788264700652363</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.04681098263651888</v>
+        <v>0.5856842885560387</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.006206026302423631</v>
+        <v>0.05863313754612685</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01091105209662515</v>
+        <v>0.006912707237195915</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001446546782078099</v>
+        <v>0.0136666479172622</v>
       </c>
       <c r="AS7" t="n">
-        <v>-2.337906133070406</v>
+        <v>0.00161126523190993</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.3099509161577266</v>
+        <v>-2.92834638688637</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.3452450629257363</v>
       </c>
     </row>
     <row r="8">
@@ -1572,104 +1607,109 @@
       <c r="M8" t="n">
         <v>1.13</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>218.6813186813187</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>11996692.91208371</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.5457537851791038</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>1.875162299943961e-14</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.0182</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.832</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.01</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>1.230952744121373</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.02255509311249948</v>
       </c>
-      <c r="W8" t="n">
-        <v>0.3932030740682309</v>
-      </c>
       <c r="X8" t="n">
-        <v>0.7034196471563962</v>
+        <v>0.4800130228426978</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3931003843753356</v>
+        <v>0.85871808596261</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00632714252090825</v>
+        <v>0.479384445676216</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7104510874316954</v>
+        <v>0.007879467402631582</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04281761370911163</v>
+        <v>0.8651899656623452</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03867685288027634</v>
+        <v>0.05207299246047752</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005121183918584715</v>
+        <v>0.03994351017027888</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.008681225609294109</v>
+        <v>0.005288901415248646</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001149477004283218</v>
+        <v>0.008965533583839183</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.895893814794579</v>
+        <v>0.001187122089618176</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2510344092815666</v>
+        <v>-1.957983864598113</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.04169625787052898</v>
+        <v>0.2592557236046906</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01163180930397842</v>
+        <v>0.04306179992124906</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.009358947139723458</v>
+        <v>0.01201274815896776</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.002610821545504234</v>
+        <v>0.009665450325439598</v>
       </c>
       <c r="AM8" t="n">
-        <v>-2.043901494299939</v>
+        <v>0.002696325300262809</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.5701776042261369</v>
+        <v>-2.110838758710155</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0294977621545262</v>
+        <v>0.5888507786238791</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.005618708079504074</v>
+        <v>0.1107534092301787</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.006620929811053174</v>
+        <v>0.007910207882436727</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001261148951853137</v>
+        <v>0.02485919253828359</v>
       </c>
       <c r="AS8" t="n">
-        <v>-1.445945589010609</v>
+        <v>0.001775488286402665</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.2754224581830039</v>
+        <v>-5.42900179021516</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.3877490819760815</v>
       </c>
     </row>
     <row r="9">
@@ -1714,104 +1754,2451 @@
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>225.4957507082153</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>11814033.63343623</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.3428297095095807</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>1.710246964098733e-14</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.01765</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1.044</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.01</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.7852110707685567</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.02290382218891718</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.15079991655827</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.8551581203648122</v>
+        <v>0.1840929752726221</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.150367778965592</v>
+        <v>1.043956829019</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.005516177200739908</v>
+        <v>0.1834217510413821</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8510181815395842</v>
+        <v>0.006610285388868801</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06840268459766707</v>
+        <v>1.037249565771717</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.03625856892767162</v>
+        <v>0.08324914561574995</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.009128430009452496</v>
+        <v>0.03795740719510075</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.005429571262942221</v>
+        <v>0.009556128252384838</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00136694477253009</v>
+        <v>0.005683965291995593</v>
       </c>
       <c r="AG9" t="n">
-        <v>-1.222714838459857</v>
+        <v>0.001430990821718315</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3078297669901052</v>
+        <v>-1.280003220741922</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0650461859142319</v>
+        <v>0.3222526469735862</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.02323140114090258</v>
+        <v>0.06809382273635353</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.009740398263053842</v>
+        <v>0.02431987193363821</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.003478806576292192</v>
+        <v>0.01019676931681178</v>
       </c>
       <c r="AM9" t="n">
-        <v>-2.193493539725788</v>
+        <v>0.003641800591543551</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.783411473019184</v>
+        <v>-2.296266232494721</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.006237095022896936</v>
+        <v>0.8201169864707178</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.005654663720886431</v>
+        <v>0.0764529290133619</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.000933979274474797</v>
+        <v>0.006434526462738045</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.00084676258739753</v>
+        <v>0.01144851103105485</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.2103278992779026</v>
+        <v>0.0009635438189084439</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.1906870966645307</v>
+        <v>-2.578152792925428</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2169857006807591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-11_M_e.dat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.003197655391063897</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01345</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.736642878306676e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>312</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>295.910780669145</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10313046.83963658</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.769516605594979</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.335216899856132e-14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01345000000000079</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3129999999999817</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.642734178132208</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.02623730211659214</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.142335417465111</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5548562616244402</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.146751399392424</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0264381064307021</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5645745471895278</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.1782845119635395</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.09588248057935746</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.007905345989257304</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.02121125588679844</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.001748831649312928</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-6.268280949684601</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.5168090079200076</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.09053570142551021</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01828008948653719</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.02002843395606431</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.004043946854416194</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-5.918737282168692</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.195053945148555</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.04634241619875178</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.006294474462767628</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0102519338513637</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.001392472406804069</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-3.029617953830138</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.4114988903586723</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-12_P_e.dat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.007000000000000006</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002683281572999748</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.100245092149984e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>312</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>297.0149253731344</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10293859.7591302</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.832547961309826</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.320381292952789e-14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.817073455291558</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.02628620672961008</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.337201210403296</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9541938321888729</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.338403115683406</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.03273117104464639</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.9699541440316289</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.09549485367536516</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1100078773544556</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.005848633849199557</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.02383173447232599</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.001267028255357355</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-7.06895485128017</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3758251646693199</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.10635469982027</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.01312744962514222</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0230403224473993</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.002843886286044711</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-6.834206688931204</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.8435518523240245</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.05017135351968804</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.004881905588098245</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.01086895233280289</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.001057599514620665</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-3.22394215202923</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3137045366240868</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-12_S_e.dat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02199999999999996</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.002830194339616981</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01545</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.687817782917155e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>312</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>257.6051779935275</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11053252.46940711</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.469933835424869</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.023813175044571e-14</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.01545000000000002</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4079999999999995</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.598436664676764</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.02448026283874657</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.651073104549758</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.8373881911024803</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.6510583640423</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01364074726576663</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.8432255135712071</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.08740801092645802</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.09701666111381928</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.00630881956783338</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.01936960019796863</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.001259570380459604</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-4.983064718891006</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.3240397664215402</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.08927350384383967</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.009956935538206745</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.01782366098641875</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.001987925149740476</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-4.585353095321601</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.5114178700759537</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1305115352174499</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.007424037248970913</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.02605692908168965</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.001482226163181265</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-6.703461231132171</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.3813206686599732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-12_W_e.dat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01400000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.002159282288168918</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.905124837953327e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>312</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>268.9189189189189</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10818242.33717204</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.619277078226691</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.778976100968209e-14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.050145532380652</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.02501205992995382</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.902711770261827</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7723150451450939</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.903631925274048</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.02207712249549832</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.7712512188135124</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1075937029676054</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.1084534440986154</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.006077054596389975</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.02165298030426335</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.001213297969255041</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-5.81514194698349</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.3258442863782444</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.101378695162213</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.0119069882382747</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.02024049035845548</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.002377257669862685</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-5.43580250187521</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.6384382473245422</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.113558193940767</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.007201910433110485</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.02267215538633629</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.001437878031972992</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-6.088852433383173</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.3861576901137201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-12_Z_e.dat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.003000000000000003</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.002334523505985751</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01315</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.861670622929925e-05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>312</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>302.6615969581749</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10197382.84370801</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.832547961309826</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.247849547990348e-14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.01315</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.862647539882818</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.02653489918161383</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.303037604417125</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.236561499790153</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.298647551234408</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.03468007209283699</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.223160664082772</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1270716078995229</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1156817833983948</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.00805903041041763</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.02309613492043523</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.00160900401272236</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-6.981004370209433</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.4863352280887889</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.1233748007282828</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.01554880953035137</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02463206357727857</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.003104355692100503</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-7.445251946814395</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.9383180661134515</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.05381901802252812</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.00630168935468624</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.01074509110265751</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.001258146816956173</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-3.247795711462574</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.3802856390384568</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-12_ZC_e.dat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.006132087735836793</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.433981132056603e-06</v>
+      </c>
+      <c r="K15" t="n">
+        <v>312</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>242.6829268292683</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11388008.22332486</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.135102115031816</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.420563675494637e-14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.697076886217068</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0237606542222104</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.112056420138793</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.7934642303614043</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.112164664690718</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.01068208617958685</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.7905784110652517</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.05139300907476294</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1007072932325764</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.005367261215488662</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.01547125532037115</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0008245506950939451</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-3.74960966596825</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1998379053530432</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.1067256032953008</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.01027037065200135</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.01639582402427359</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.001577795624245421</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-3.973687911541486</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.3823941626639199</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1828887170164435</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.004483503556750626</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.02809645602967335</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0006887825700576272</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-6.809450230557491</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.166933175683418</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-12_ZF_e.dat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01900000000000002</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.003397793401606401</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01605</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.939635614091387e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>312</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>247.9750778816199</v>
+      </c>
+      <c r="P16" t="n">
+        <v>11265834.48587939</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.184303863574059</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.268872429614806e-14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.01604999999999909</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.5065000000000286</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.844500051803453</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.02401832957986948</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.235181874572068</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.7891983731649945</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.235122385528748</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.00854808224485642</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.782445825580287</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.08429616544475362</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.09161647392856917</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.007002612193988689</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.01407466941274634</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.00107578307077067</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-3.485519533635075</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.266412147750292</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.08311976499103028</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.01210920465691885</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.01276935428475498</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.001860288276651022</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-3.162264951751757</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.4606908294831669</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.1556602115990503</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.007344631758383546</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.02391345055129424</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.001128326157129814</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-5.922043109422388</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2794241730058492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-13_E_e.dat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02999999999999997</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.004440720662234904</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01095</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.909175083453431e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>312</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>363.4703196347032</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9305354.174970582</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.900170855463732</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7.20488950960589e-15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.01095</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.525427837557395</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.02907858428451125</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.712247625328573</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.536128619439095</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.709530371138133</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.06997682695484878</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.544199815236637</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1640162649614992</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.1036094518654878</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.005539655385751887</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.02341089416067305</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.001251703233512028</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-8.497833883144047</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4543511271452297</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.09314019942345445</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.01120713735170289</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.02104533236636874</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.002532289300453649</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-7.639167356767665</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.9191863271701491</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.09480982483641272</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.006112856830376239</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.02142258968340852</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.001381219972682381</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-7.776106594944654</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.5013639292621614</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-18_H_e.dat</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.002320021551624036</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.020761493398643e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>312</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9942162.439553967</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.013297652101164</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.071803094462424e-14</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.479403702584629</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.02721606363999922</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.200674223248605</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.059081735635237</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.204187453084783</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.05764487843401281</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.05292413155216</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1422118647501142</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.09450492993072647</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.005144136571807705</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.02135369768331942</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.001162334465266604</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-6.789963374551185</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.3695944639276144</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.09282060474344345</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.00930592034970394</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.02097311890424402</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.002102703107216626</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-6.668948456695905</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.6686091232203147</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.140549479176124</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.005805654772398775</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.03175761402156386</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.001311806663995174</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-10.0981590761208</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.4171230357905302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-18_K_e.dat</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002247220505424423</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01815</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.261748467472007e-05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>312</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>219.2837465564738</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11980202.60475346</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.341473584294481</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.281065162840418e-14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.01814999999999999</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4510000000000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.02987093318285</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.02258613936685414</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.152443948870716</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.6162295286153214</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.153132141044684</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.009368433894991665</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.6104226387990714</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.09286756421319267</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.05953299953512195</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.005318223463822162</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.01098918333317642</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0009816897033092283</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-2.406540330268672</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2149819318866774</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0680255364360607</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.01024385810175349</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.01255681885796001</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.001890911521311826</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-2.749839554530783</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.4140939957993458</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.1914176695429754</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.003673788712012386</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.0353337456577532</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.0006781438529708296</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-7.737798284621037</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.1485078993059592</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-18_O_e.dat</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01700000000000002</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.003264965543462901</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.938591118661596e-05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>312</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>245.679012345679</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11318356.143492</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.636592067197644</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.333082043695944e-14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.912580199762064</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.02390687501291401</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.614499674265085</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.7479000138540894</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.613418435940632</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.01841741626448161</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.7495212719044527</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1059830530848191</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1031912776167431</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.005677615606897782</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.01904805531335758</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.001048029820212479</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-4.673475645308796</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2571360571850955</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.08777792351874728</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.007393738082200927</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.01620290765937259</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.00136480849171491</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-3.975413399611626</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.3348582908653865</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1095008693184182</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.006996468806356675</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.02021274146236122</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.001291476643177442</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-4.959233548793041</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.3168661860269992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-18_R_e.dat</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.004000000000000004</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.002829310870159021</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.581181899828062e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>312</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>355.3571428571428</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9410980.193430014</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.933738786311322</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7.709727630832153e-15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.559927329509613</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.02875221497788427</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.313354688338319</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.690577232147332</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.307974884154024</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.116718225557854</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.6672981594244676</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.2483341342969804</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.07491757526292481</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.008110131892879477</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.02171210150633806</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.002350423198695423</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-7.705275880110893</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.8341274185584563</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.07199602540440624</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.01344640003339034</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.02086539782083618</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.003896944093494688</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-7.40479434986408</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.382962829322621</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.1640638816093243</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.009746260588038647</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.04754787696376937</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.002824594875795981</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-16.87397737213343</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.002403326145206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-26_I_e.dat</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.002238861317723811</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01555</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.521718330588067e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>312</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>255.9485530546624</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11088965.81761574</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.627129148503784</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.06336541874845e-14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.01555</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.970426371206709</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.02440142120776147</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.423720929103309</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.004176756828809121</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.42878899446897</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.01814292923291061</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.01894661850090305</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.1381171919943966</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.1031018948620745</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.009195608682287391</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.02058453115376194</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.001835924486660207</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-5.261565014588921</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.4692764666963559</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.1079469777115687</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.01042333343047684</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.02155186312172813</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.002081042564860015</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-5.50882253054231</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.5319305390706823</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.08805540902177351</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0100399966385639</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.01758046554518462</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.002004508490039458</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-4.493702662536682</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.5123678389298935</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-02-27_M_e.dat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.003000000000000003</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.002350531854708632</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01325</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.304920573932148e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>312</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>300.377358490566</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10236082.72792607</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.732343339630255</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.276534634354319e-14</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.01325000000000021</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.324499999999995</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.579376486147351</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.02643457784254682</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.72714607754698</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.5559808877133191</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.726223251729563</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.04480516303990574</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.5434335769049903</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.3063422466882728</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.1100841480757266</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.009173413238962504</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.02197855411514543</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.001831493115197986</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-6.593068606903294</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.5494064667907506</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.1045811699904251</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.0162705405013837</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.02087987184565956</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.003248450945419798</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-6.263488801882502</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.9744617337932142</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.05827441577762823</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.006331004472907844</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.01163462154256793</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.001263999647935817</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-3.490123037376966</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.3791712755207923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-27_P_e.dat</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03299999999999992</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.006264982043070834</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.569784555977009e-05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>312</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>232.7485380116959</v>
+      </c>
+      <c r="P24" t="n">
+        <v>11628505.516922</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.07978800530628</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.743931710855694e-14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.01709999999999997</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5465000000000009</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.512584995511459</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.02326924343634257</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.9291712953489056</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6157605849977758</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.9287683999886286</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.01493959788336004</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.6248204775282812</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.07378899890714387</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.0705777746964725</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.00779812039558569</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.01278096647001288</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.001412165738204915</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-2.970789908091242</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.3282418222013498</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.08910038001005738</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.01426070157882935</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.01613523484229187</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.002582477975562855</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-3.75045134079869</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.6002675561093388</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.1181943584790846</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.006425812585369754</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.0214038787587527</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.001163653792562864</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-4.975087538152893</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.2704780543450071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05_K_e.dat</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.001930025906561878</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.341082814229648e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>312</v>
+      </c>
+      <c r="L25" t="n">
+        <v>13</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>226.1363636363637</v>
+      </c>
+      <c r="P25" t="n">
+        <v>11797288.00682871</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>0.0229363329535979</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.4815596389641688</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.8538898287910763</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.4806487461775348</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.00895582712979401</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.8552061528593573</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.1130056560400712</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.03496718725608308</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.01034179382414289</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.006580525592487564</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.0019462371518076</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-1.48611449275343</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.4395289095050955</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.04240398000895313</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.02000253645525653</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.007980066387058449</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.003764306293626249</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-1.802180106172799</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.8501129673452427</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.02959039531050696</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.006541840198506609</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.005568659332149756</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.001231118377722751</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>-1.257599445880436</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.2780298986326493</v>
       </c>
     </row>
   </sheetData>
